--- a/backend/src/data/abctravels_schedule.xlsx
+++ b/backend/src/data/abctravels_schedule.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d12f69fa1a50cb4/Desktop/BusBookingApp/backend/src/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_FFC65FC09C61AEE798160BC3B3B2DBFE7399817D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D94FF13-BB4F-4C43-A138-FA311B5D7872}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -247,8 +253,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +317,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,7 +369,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -389,6 +403,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -423,9 +438,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -598,14 +614,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -669,7 +692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -701,7 +724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -733,7 +756,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -765,7 +788,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -797,7 +820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -829,7 +852,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -861,7 +884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -893,7 +916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -925,7 +948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -957,7 +980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -989,7 +1012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1021,7 +1044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1108,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1140,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1213,7 +1236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1245,7 +1268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1300,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +1364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1396,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1405,7 +1428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1492,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1533,7 +1556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1597,7 +1620,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1629,7 +1652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1661,7 +1684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1716,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1789,7 +1812,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1821,7 +1844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +1876,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1917,7 +1940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1949,7 +1972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1981,7 +2004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2013,7 +2036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2045,7 +2068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2077,7 +2100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2141,7 +2164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2173,7 +2196,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2205,7 +2228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2237,7 +2260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2269,7 +2292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2301,7 +2324,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2333,7 +2356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2365,7 +2388,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2397,7 +2420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2429,7 +2452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2493,7 +2516,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2525,7 +2548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2589,7 +2612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2621,7 +2644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2653,7 +2676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2685,7 +2708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2717,7 +2740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2749,7 +2772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2781,7 +2804,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2813,7 +2836,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2845,7 +2868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2877,7 +2900,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2909,7 +2932,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2941,7 +2964,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -2973,7 +2996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3005,7 +3028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3037,7 +3060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3069,7 +3092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3101,7 +3124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3133,7 +3156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3165,7 +3188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3197,7 +3220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3229,7 +3252,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3261,7 +3284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3293,7 +3316,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3325,7 +3348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3357,7 +3380,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3389,7 +3412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3421,7 +3444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3453,7 +3476,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3485,7 +3508,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3517,7 +3540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3549,7 +3572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3581,7 +3604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3613,7 +3636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3645,7 +3668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3677,7 +3700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3709,7 +3732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3741,7 +3764,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3773,7 +3796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3805,7 +3828,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3837,7 +3860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3869,7 +3892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3901,7 +3924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -3933,7 +3956,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3965,7 +3988,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -3997,7 +4020,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4029,7 +4052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4061,7 +4084,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4093,7 +4116,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4125,7 +4148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4157,7 +4180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -4189,7 +4212,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -4221,7 +4244,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -4253,7 +4276,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -4285,7 +4308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4317,7 +4340,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -4349,7 +4372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -4381,7 +4404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -4413,7 +4436,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4445,7 +4468,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4477,7 +4500,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -4509,7 +4532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4541,7 +4564,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4573,7 +4596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -4605,7 +4628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4637,7 +4660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -4669,7 +4692,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -4701,7 +4724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -4733,7 +4756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -4765,7 +4788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -4797,7 +4820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -4829,7 +4852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -4861,7 +4884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -4893,7 +4916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -4925,7 +4948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -4957,7 +4980,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -4989,7 +5012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -5021,7 +5044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -5053,7 +5076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -5085,7 +5108,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -5117,7 +5140,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -5149,7 +5172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -5181,7 +5204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -5213,7 +5236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -5245,7 +5268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -5277,7 +5300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5309,7 +5332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -5341,7 +5364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -5373,7 +5396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -5405,7 +5428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -5437,7 +5460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -5469,7 +5492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -5501,7 +5524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -5533,7 +5556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -5565,7 +5588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -5597,7 +5620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -5629,7 +5652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -5661,7 +5684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -5693,7 +5716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -5725,7 +5748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -5757,7 +5780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -5789,7 +5812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -5821,7 +5844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -5853,7 +5876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -5885,7 +5908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -5917,7 +5940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -5949,7 +5972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -5981,7 +6004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -6013,7 +6036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -6045,7 +6068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -6077,7 +6100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -6109,7 +6132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -6141,7 +6164,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -6173,7 +6196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -6205,7 +6228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -6237,7 +6260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -6269,7 +6292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -6301,7 +6324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -6333,7 +6356,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -6365,7 +6388,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -6397,7 +6420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -6429,7 +6452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -6461,7 +6484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -6493,7 +6516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -6525,7 +6548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -6557,7 +6580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -6589,7 +6612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -6621,7 +6644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -6653,7 +6676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -6685,7 +6708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -6717,7 +6740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -6749,7 +6772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -6781,7 +6804,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -6813,7 +6836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -6845,7 +6868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -6877,7 +6900,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -6909,7 +6932,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -6941,7 +6964,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -6973,7 +6996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -7005,7 +7028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>10</v>
       </c>
